--- a/和小鹿一起行万里路.xlsx
+++ b/和小鹿一起行万里路.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C392DA69-302A-430F-9260-80795AD9166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="7466" yWindow="508" windowWidth="13360" windowHeight="9197" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -203,13 +209,61 @@
   </si>
   <si>
     <t>九溪十八涧</t>
+  </si>
+  <si>
+    <t>别止咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁边有水榭，喝下午茶很不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸爱上椰子鸡（星光大道店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群友推荐（椰子水煮原味鸡），煮熟之前不能开盖，影响口味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺坞岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市萧山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬山看落日，夜路下山，漫天星光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市内华星路嘉绿苑附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒汁+土豆牛腩盖浇饭=绝配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋记牛杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,31 +280,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,47 +323,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -324,28 +368,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -354,7 +406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -370,7 +422,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -382,7 +434,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -653,446 +705,521 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8330078125" defaultRowHeight="13.950000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1" style="3"/>
-    <col min="2" max="2" width="20.8330078125" customWidth="1" style="3"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="22.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.950000000000001" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="13.950000000000001" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="13.950000000000001" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="13.950000000000001" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="13.950000000000001" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="13.950000000000001" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="13.950000000000001" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="13.950000000000001" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="13.950000000000001" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="13.950000000000001" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="13.950000000000001" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="48" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="13.950000000000001" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="13.950000000000001" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="13.950000000000001" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="13.950000000000001" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="13.950000000000001" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="13.950000000000001" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="33.449999999999996" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7">
-        <v/>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="13.950000000000001" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="13.950000000000001" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="13.950000000000001" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" ht="13.950000000000001" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" ht="13.950000000000001" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="13.950000000000001" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" ht="13.950000000000001" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" ht="13.950000000000001" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" ht="13.950000000000001" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" ht="13.950000000000001" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" ht="13.950000000000001" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" ht="13.950000000000001" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" ht="13.950000000000001" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" ht="13.950000000000001" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" ht="13.950000000000001" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/和小鹿一起行万里路.xlsx
+++ b/和小鹿一起行万里路.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gitProject\sightseeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C392DA69-302A-430F-9260-80795AD9166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548D40D-C2BE-4BBC-942F-57FC8D5279D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7466" yWindow="508" windowWidth="13360" windowHeight="9197" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="2263" yWindow="968" windowWidth="17280" windowHeight="9197" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>景点或美食名称</t>
   </si>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>蒋记牛杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大运河亚运公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合散步，一家人野餐搭帐篷，放风筝，草坪玩耍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +381,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="762000"/>
@@ -705,10 +713,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -945,200 +953,202 @@
     </row>
     <row r="16" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="25.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
+    <row r="25" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="60.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>5</v>
@@ -1149,7 +1159,7 @@
     </row>
     <row r="32" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -1159,10 +1169,14 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1221,6 +1235,13 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
+    <row r="42" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
